--- a/MyMojioWebsite/src/com/mojio/xls/AdminDashboard.xlsx
+++ b/MyMojioWebsite/src/com/mojio/xls/AdminDashboard.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="126">
   <si>
     <t>TCID</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Proceed_on_Fail</t>
   </si>
   <si>
-    <t>Result1</t>
-  </si>
-  <si>
     <t>TS001</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>config|browserType</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>TS002</t>
   </si>
   <si>
@@ -171,6 +165,15 @@
     <t>col|Dashboard_Page</t>
   </si>
   <si>
+    <t>Scroll to bottom of a section</t>
+  </si>
+  <si>
+    <t>scrollPageSectionBottom</t>
+  </si>
+  <si>
+    <t>deviceManagementId</t>
+  </si>
+  <si>
     <t>Click on Admin Dashboard</t>
   </si>
   <si>
@@ -190,9 +193,6 @@
   </si>
   <si>
     <t>col|Admin_Dashboard_Page</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>Click on Device Manager</t>
@@ -410,7 +410,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -436,7 +436,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,12 +447,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -538,7 +532,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -550,7 +544,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -558,11 +552,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="7" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="6" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -646,15 +640,15 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A38" activeCellId="0" pane="topLeft" sqref="A38"/>
+      <selection activeCell="C16" activeCellId="0" pane="topLeft" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="30.280612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.4234693877551" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="25.2908163265306" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -773,9 +767,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="32.1173469387755" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="21.1020408163265" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -824,9 +818,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.7244897959184" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.0" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -867,23 +861,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:62"/>
+  <dimension ref="1:63"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A34" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E61" activeCellId="0" pane="topLeft" sqref="E61"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J13" activeCellId="0" pane="topLeft" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="31.8571428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="7.0" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="32.9285714285714" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="21.4285714285714" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="38.4285714285714" collapsed="true"/>
-    <col min="6" max="6" hidden="false" style="0" width="34.1428571428571" collapsed="true"/>
-    <col min="7" max="7" hidden="false" style="0" width="13.8418367346939" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.1428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -908,1362 +901,1207 @@
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
+      <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12" s="8">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11" s="8">
-      <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AMH11" s="0"/>
-      <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12" s="8">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13" s="8">
-      <c r="A13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="AMD13" s="0"/>
+      <c r="AME13" s="0"/>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14" s="8">
       <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="AMD14" s="0"/>
+      <c r="AME14" s="0"/>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="A20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="0" t="s">
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
+      <c r="A28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="G28" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
+      <c r="A30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
+      <c r="A31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
+      <c r="A32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
+      <c r="A34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="C34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="G34" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
       <c r="A40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
+      <c r="A41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
+      <c r="A44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
+      <c r="A45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="0" t="s">
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
+      <c r="A47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
+      <c r="A48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
+      <c r="A49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="D49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="G49" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
+      <c r="A50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="A51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="A52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
+      <c r="A53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
+      <c r="A54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
+      <c r="A55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="C55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
-      <c r="A44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
-      <c r="A52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
-      <c r="A53" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
-      <c r="A54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7" t="s">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="G55" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
       <c r="A56" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
       <c r="A57" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
       <c r="A58" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
       <c r="A59" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F59" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="G59" s="9"/>
-      <c r="H59" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
       <c r="A60" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
       <c r="A61" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
       <c r="A62" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G62" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
+      <c r="A63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" t="s">
-        <v>23</v>
-      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2289,12 +2127,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.4234693877551" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="27.8520408163265" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="27.0" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="18.5765306122449" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="8.6734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -2355,9 +2193,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="26.3418367346939" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="18.6836734693878" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -2400,9 +2238,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="29.030612244898" collapsed="true"/>
-    <col min="2" max="3" hidden="false" style="0" width="22.8520408163265" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="22.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -2451,10 +2289,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="27.2857142857143" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="29.5714285714286" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="15.5867346938776" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -2503,10 +2341,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="35.2142857142857" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="21.3622448979592" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="14.1122448979592" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -2555,9 +2393,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="28.3571428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.7295918367347" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
@@ -2606,9 +2444,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="29.5714285714286" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="23.1173469387755" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
